--- a/colours.xlsx
+++ b/colours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb50fb2c3dcf87a3/Projects/python/UWS-kleuren/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{E88E7F9E-BA90-4F79-ADAD-AC0307033E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3B4A7C-241A-4907-941A-5F5464B90424}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="14_{E88E7F9E-BA90-4F79-ADAD-AC0307033E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B315B59B-AEDB-4D30-B256-846B4318CD58}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15370" xr2:uid="{83AA5FA5-9959-4678-AB94-F58C5494CC59}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
-    <t>Body background</t>
-  </si>
-  <si>
     <t>Body text</t>
   </si>
   <si>
@@ -52,30 +49,12 @@
     <t>body-text</t>
   </si>
   <si>
-    <t>ugent-blue</t>
-  </si>
-  <si>
-    <t>ugent-lightblue</t>
-  </si>
-  <si>
     <t>#1E64C8</t>
   </si>
   <si>
     <t>#E8EFF9</t>
   </si>
   <si>
-    <t>Accent</t>
-  </si>
-  <si>
-    <t>accent</t>
-  </si>
-  <si>
-    <t>accent-light</t>
-  </si>
-  <si>
-    <t>accent-medium</t>
-  </si>
-  <si>
     <t>#FFD200</t>
   </si>
   <si>
@@ -85,18 +64,6 @@
     <t>#FFF1B2</t>
   </si>
   <si>
-    <t>Accent light</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>Grey medium</t>
-  </si>
-  <si>
-    <t>Grey light</t>
-  </si>
-  <si>
     <t>#999999</t>
   </si>
   <si>
@@ -112,15 +79,6 @@
     <t>#E5E5E5</t>
   </si>
   <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>grey-medium</t>
-  </si>
-  <si>
-    <t>grey-light</t>
-  </si>
-  <si>
     <t>LW</t>
   </si>
   <si>
@@ -266,6 +224,48 @@
   </si>
   <si>
     <t>Secondary</t>
+  </si>
+  <si>
+    <t>Secondary medium</t>
+  </si>
+  <si>
+    <t>Secondary light</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Neutral medium</t>
+  </si>
+  <si>
+    <t>Neutral light</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>primary-light</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>secondary-medium</t>
+  </si>
+  <si>
+    <t>secondary-light</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>neutral-medium</t>
+  </si>
+  <si>
+    <t>neutral-light</t>
+  </si>
+  <si>
+    <t>Background</t>
   </si>
 </sst>
 </file>
@@ -635,496 +635,497 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="M7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="N7" t="s">
         <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="M8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="N8" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
